--- a/spi_adxl362_controller/axis_corner_xyz.xlsx
+++ b/spi_adxl362_controller/axis_corner_xyz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datda\Downloads\jit_intern\spi_adxl362_controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3291E60-8D63-4F23-A4B3-FBE756FE43B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68424587-5EDE-43AD-8865-FB4630350388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Q24"/>
+  <dimension ref="A2:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -979,6 +979,527 @@
         <v>-90</v>
       </c>
     </row>
+    <row r="26" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-8</v>
+      </c>
+      <c r="D26" s="1">
+        <v>90</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>90</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>4</v>
+      </c>
+      <c r="L26" s="1">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-8</v>
+      </c>
+      <c r="D27" s="1">
+        <v>90</v>
+      </c>
+      <c r="F27" s="1">
+        <v>10</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>90</v>
+      </c>
+      <c r="J27" s="1">
+        <v>10</v>
+      </c>
+      <c r="K27" s="1">
+        <v>4</v>
+      </c>
+      <c r="L27" s="1">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>20</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>90</v>
+      </c>
+      <c r="F28" s="1">
+        <v>20</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-3</v>
+      </c>
+      <c r="H28" s="1">
+        <v>90</v>
+      </c>
+      <c r="J28" s="1">
+        <v>20</v>
+      </c>
+      <c r="K28" s="1">
+        <v>4</v>
+      </c>
+      <c r="L28" s="1">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>90</v>
+      </c>
+      <c r="F29" s="1">
+        <v>30</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1">
+        <v>90</v>
+      </c>
+      <c r="J29" s="1">
+        <v>30</v>
+      </c>
+      <c r="K29" s="1">
+        <v>4</v>
+      </c>
+      <c r="L29" s="1">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>40</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>72</v>
+      </c>
+      <c r="F30" s="1">
+        <v>40</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4</v>
+      </c>
+      <c r="H30" s="1">
+        <v>72</v>
+      </c>
+      <c r="J30" s="1">
+        <v>40</v>
+      </c>
+      <c r="K30" s="1">
+        <v>3</v>
+      </c>
+      <c r="L30" s="1">
+        <v>-83</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>50</v>
+      </c>
+      <c r="C31" s="1">
+        <v>-5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>56</v>
+      </c>
+      <c r="F31" s="1">
+        <v>50</v>
+      </c>
+      <c r="G31" s="1">
+        <v>5</v>
+      </c>
+      <c r="H31" s="1">
+        <v>55</v>
+      </c>
+      <c r="J31" s="1">
+        <v>50</v>
+      </c>
+      <c r="K31" s="1">
+        <v>3</v>
+      </c>
+      <c r="L31" s="1">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>60</v>
+      </c>
+      <c r="C32" s="1">
+        <v>-5</v>
+      </c>
+      <c r="D32" s="1">
+        <v>44</v>
+      </c>
+      <c r="F32" s="1">
+        <v>60</v>
+      </c>
+      <c r="G32" s="1">
+        <v>7</v>
+      </c>
+      <c r="H32" s="1">
+        <v>44</v>
+      </c>
+      <c r="J32" s="1">
+        <v>60</v>
+      </c>
+      <c r="K32" s="1">
+        <v>2</v>
+      </c>
+      <c r="L32" s="1">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>70</v>
+      </c>
+      <c r="C33" s="1">
+        <v>-6</v>
+      </c>
+      <c r="D33" s="1">
+        <v>33</v>
+      </c>
+      <c r="F33" s="1">
+        <v>70</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1">
+        <v>35</v>
+      </c>
+      <c r="J33" s="1">
+        <v>70</v>
+      </c>
+      <c r="K33" s="1">
+        <v>2</v>
+      </c>
+      <c r="L33" s="1">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>80</v>
+      </c>
+      <c r="C34" s="1">
+        <v>-6</v>
+      </c>
+      <c r="D34" s="1">
+        <v>23</v>
+      </c>
+      <c r="F34" s="1">
+        <v>80</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1">
+        <v>26</v>
+      </c>
+      <c r="J34" s="1">
+        <v>80</v>
+      </c>
+      <c r="K34" s="1">
+        <v>2</v>
+      </c>
+      <c r="L34" s="1">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <v>90</v>
+      </c>
+      <c r="C35" s="1">
+        <v>-6</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1">
+        <v>90</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>18</v>
+      </c>
+      <c r="J35" s="1">
+        <v>90</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <v>-10</v>
+      </c>
+      <c r="C37" s="1">
+        <v>-5</v>
+      </c>
+      <c r="D37" s="1">
+        <v>90</v>
+      </c>
+      <c r="F37" s="1">
+        <v>-10</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>90</v>
+      </c>
+      <c r="J37" s="1">
+        <v>-10</v>
+      </c>
+      <c r="K37" s="1">
+        <v>4</v>
+      </c>
+      <c r="L37" s="1">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>-20</v>
+      </c>
+      <c r="C38" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>90</v>
+      </c>
+      <c r="F38" s="1">
+        <v>-20</v>
+      </c>
+      <c r="G38" s="1">
+        <v>6</v>
+      </c>
+      <c r="H38" s="1">
+        <v>90</v>
+      </c>
+      <c r="J38" s="1">
+        <v>-20</v>
+      </c>
+      <c r="K38" s="1">
+        <v>4</v>
+      </c>
+      <c r="L38" s="1">
+        <v>-78</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <v>-30</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>90</v>
+      </c>
+      <c r="F39" s="1">
+        <v>-30</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2</v>
+      </c>
+      <c r="H39" s="1">
+        <v>90</v>
+      </c>
+      <c r="J39" s="1">
+        <v>-30</v>
+      </c>
+      <c r="K39" s="1">
+        <v>4</v>
+      </c>
+      <c r="L39" s="1">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>-40</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>71</v>
+      </c>
+      <c r="F40" s="1">
+        <v>-40</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2</v>
+      </c>
+      <c r="H40" s="1">
+        <v>86</v>
+      </c>
+      <c r="J40" s="1">
+        <v>-40</v>
+      </c>
+      <c r="K40" s="1">
+        <v>4</v>
+      </c>
+      <c r="L40" s="1">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <v>-50</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1">
+        <v>55</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-50</v>
+      </c>
+      <c r="G41" s="1">
+        <v>3</v>
+      </c>
+      <c r="H41" s="1">
+        <v>66</v>
+      </c>
+      <c r="J41" s="1">
+        <v>-50</v>
+      </c>
+      <c r="K41" s="1">
+        <v>3</v>
+      </c>
+      <c r="L41" s="1">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <v>-60</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1">
+        <v>41</v>
+      </c>
+      <c r="F42" s="1">
+        <v>-60</v>
+      </c>
+      <c r="G42" s="1">
+        <v>3</v>
+      </c>
+      <c r="H42" s="1">
+        <v>54</v>
+      </c>
+      <c r="J42" s="1">
+        <v>-60</v>
+      </c>
+      <c r="K42" s="1">
+        <v>2</v>
+      </c>
+      <c r="L42" s="1">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <v>-70</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5</v>
+      </c>
+      <c r="D43" s="1">
+        <v>27</v>
+      </c>
+      <c r="F43" s="1">
+        <v>-70</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3</v>
+      </c>
+      <c r="H43" s="1">
+        <v>45</v>
+      </c>
+      <c r="J43" s="1">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <v>-80</v>
+      </c>
+      <c r="F44" s="1">
+        <v>-80</v>
+      </c>
+      <c r="G44" s="1">
+        <v>4</v>
+      </c>
+      <c r="H44" s="1">
+        <v>40</v>
+      </c>
+      <c r="J44" s="1">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
+        <v>-90</v>
+      </c>
+      <c r="F45" s="1">
+        <v>-90</v>
+      </c>
+      <c r="G45" s="1">
+        <v>3</v>
+      </c>
+      <c r="H45" s="1">
+        <v>23</v>
+      </c>
+      <c r="J45" s="1">
+        <v>-90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
